--- a/spreadsheets/new/GSE107746.0.xlsx
+++ b/spreadsheets/new/GSE107746.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5889B76-5685-F847-909C-52FDA3D42218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31860" windowHeight="16820" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="1767">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -5320,13 +5326,16 @@
   </si>
   <si>
     <t>Granulosa cells from Preovulatory follicle</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5363,6 +5372,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5409,7 +5426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5441,9 +5458,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5475,6 +5510,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5650,75 +5703,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5897,7 +5946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6076,7 +6125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -6234,7 +6283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -6413,12 +6462,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -6441,7 +6490,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -6464,7 +6513,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -6487,7 +6536,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -6510,7 +6559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -6533,7 +6582,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -6556,7 +6605,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>229</v>
       </c>
@@ -6579,7 +6628,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -6602,7 +6651,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -6625,7 +6674,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>238</v>
       </c>
@@ -6648,7 +6697,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>241</v>
       </c>
@@ -6671,7 +6720,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -6694,7 +6743,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>247</v>
       </c>
@@ -6717,7 +6766,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -6740,7 +6789,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>253</v>
       </c>
@@ -6763,7 +6812,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>256</v>
       </c>
@@ -6786,7 +6835,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>259</v>
       </c>
@@ -6809,7 +6858,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>262</v>
       </c>
@@ -6832,7 +6881,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -6855,7 +6904,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>269</v>
       </c>
@@ -6878,7 +6927,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -6901,7 +6950,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -6924,7 +6973,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -6947,7 +6996,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>281</v>
       </c>
@@ -6970,7 +7019,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>284</v>
       </c>
@@ -6993,7 +7042,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>287</v>
       </c>
@@ -7016,7 +7065,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -7039,7 +7088,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -7062,7 +7111,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>296</v>
       </c>
@@ -7085,7 +7134,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>299</v>
       </c>
@@ -7108,7 +7157,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>302</v>
       </c>
@@ -7131,7 +7180,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>305</v>
       </c>
@@ -7154,7 +7203,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>308</v>
       </c>
@@ -7177,7 +7226,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>311</v>
       </c>
@@ -7200,7 +7249,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>314</v>
       </c>
@@ -7223,7 +7272,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>317</v>
       </c>
@@ -7246,7 +7295,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -7269,7 +7318,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -7292,7 +7341,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>326</v>
       </c>
@@ -7315,7 +7364,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -7338,7 +7387,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>332</v>
       </c>
@@ -7361,7 +7410,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -7384,7 +7433,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -7407,7 +7456,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>342</v>
       </c>
@@ -7430,7 +7479,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>345</v>
       </c>
@@ -7453,7 +7502,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>348</v>
       </c>
@@ -7476,7 +7525,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -7499,7 +7548,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>354</v>
       </c>
@@ -7522,7 +7571,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>357</v>
       </c>
@@ -7545,7 +7594,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>360</v>
       </c>
@@ -7568,7 +7617,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>363</v>
       </c>
@@ -7591,7 +7640,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>366</v>
       </c>
@@ -7614,7 +7663,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>369</v>
       </c>
@@ -7637,7 +7686,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -7660,7 +7709,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>375</v>
       </c>
@@ -7683,7 +7732,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>379</v>
       </c>
@@ -7706,7 +7755,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>382</v>
       </c>
@@ -7729,7 +7778,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>385</v>
       </c>
@@ -7752,7 +7801,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>388</v>
       </c>
@@ -7775,7 +7824,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>391</v>
       </c>
@@ -7798,7 +7847,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>394</v>
       </c>
@@ -7821,7 +7870,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>397</v>
       </c>
@@ -7844,7 +7893,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>400</v>
       </c>
@@ -7867,7 +7916,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>403</v>
       </c>
@@ -7890,7 +7939,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>406</v>
       </c>
@@ -7913,7 +7962,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>409</v>
       </c>
@@ -7936,7 +7985,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>412</v>
       </c>
@@ -7959,7 +8008,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>415</v>
       </c>
@@ -7982,7 +8031,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>418</v>
       </c>
@@ -8005,7 +8054,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>421</v>
       </c>
@@ -8028,7 +8077,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>424</v>
       </c>
@@ -8051,7 +8100,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>427</v>
       </c>
@@ -8074,7 +8123,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>430</v>
       </c>
@@ -8097,7 +8146,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>433</v>
       </c>
@@ -8120,7 +8169,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>436</v>
       </c>
@@ -8143,7 +8192,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>439</v>
       </c>
@@ -8166,7 +8215,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>442</v>
       </c>
@@ -8189,7 +8238,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>445</v>
       </c>
@@ -8212,7 +8261,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>449</v>
       </c>
@@ -8235,7 +8284,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>452</v>
       </c>
@@ -8258,7 +8307,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>455</v>
       </c>
@@ -8281,7 +8330,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>458</v>
       </c>
@@ -8304,7 +8353,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>461</v>
       </c>
@@ -8327,7 +8376,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>464</v>
       </c>
@@ -8350,7 +8399,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>467</v>
       </c>
@@ -8373,7 +8422,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>470</v>
       </c>
@@ -8396,7 +8445,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>474</v>
       </c>
@@ -8419,7 +8468,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>477</v>
       </c>
@@ -8442,7 +8491,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>480</v>
       </c>
@@ -8465,7 +8514,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>483</v>
       </c>
@@ -8488,7 +8537,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>486</v>
       </c>
@@ -8511,7 +8560,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -8534,7 +8583,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>492</v>
       </c>
@@ -8557,7 +8606,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>495</v>
       </c>
@@ -8580,7 +8629,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>498</v>
       </c>
@@ -8603,7 +8652,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>501</v>
       </c>
@@ -8626,7 +8675,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>504</v>
       </c>
@@ -8649,7 +8698,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>507</v>
       </c>
@@ -8672,7 +8721,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>510</v>
       </c>
@@ -8695,7 +8744,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>513</v>
       </c>
@@ -8718,7 +8767,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>516</v>
       </c>
@@ -8741,7 +8790,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>520</v>
       </c>
@@ -8764,7 +8813,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>523</v>
       </c>
@@ -8787,7 +8836,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>526</v>
       </c>
@@ -8810,7 +8859,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>529</v>
       </c>
@@ -8833,7 +8882,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>532</v>
       </c>
@@ -8856,7 +8905,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>535</v>
       </c>
@@ -8879,7 +8928,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>539</v>
       </c>
@@ -8902,7 +8951,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>542</v>
       </c>
@@ -8925,7 +8974,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>545</v>
       </c>
@@ -8948,7 +8997,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>548</v>
       </c>
@@ -8971,7 +9020,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>551</v>
       </c>
@@ -8994,7 +9043,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>554</v>
       </c>
@@ -9017,7 +9066,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>557</v>
       </c>
@@ -9040,7 +9089,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>560</v>
       </c>
@@ -9063,7 +9112,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>563</v>
       </c>
@@ -9086,7 +9135,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>566</v>
       </c>
@@ -9109,7 +9158,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>569</v>
       </c>
@@ -9132,7 +9181,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>572</v>
       </c>
@@ -9155,7 +9204,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>575</v>
       </c>
@@ -9178,7 +9227,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>578</v>
       </c>
@@ -9201,7 +9250,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>581</v>
       </c>
@@ -9224,7 +9273,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>584</v>
       </c>
@@ -9247,7 +9296,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>587</v>
       </c>
@@ -9270,7 +9319,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>590</v>
       </c>
@@ -9293,7 +9342,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>593</v>
       </c>
@@ -9316,7 +9365,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>596</v>
       </c>
@@ -9339,7 +9388,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>599</v>
       </c>
@@ -9362,7 +9411,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>602</v>
       </c>
@@ -9385,7 +9434,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>605</v>
       </c>
@@ -9408,7 +9457,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>608</v>
       </c>
@@ -9431,7 +9480,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>612</v>
       </c>
@@ -9454,7 +9503,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>615</v>
       </c>
@@ -9477,7 +9526,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>618</v>
       </c>
@@ -9500,7 +9549,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>621</v>
       </c>
@@ -9523,7 +9572,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>624</v>
       </c>
@@ -9546,7 +9595,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>627</v>
       </c>
@@ -9569,7 +9618,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>630</v>
       </c>
@@ -9592,7 +9641,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>633</v>
       </c>
@@ -9615,7 +9664,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>636</v>
       </c>
@@ -9638,7 +9687,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>639</v>
       </c>
@@ -9661,7 +9710,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>642</v>
       </c>
@@ -9684,7 +9733,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>645</v>
       </c>
@@ -9707,7 +9756,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>648</v>
       </c>
@@ -9730,7 +9779,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>651</v>
       </c>
@@ -9753,7 +9802,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>654</v>
       </c>
@@ -9776,7 +9825,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>657</v>
       </c>
@@ -9799,7 +9848,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>660</v>
       </c>
@@ -9828,93 +9877,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>663</v>
       </c>
@@ -10147,7 +10194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -10380,7 +10427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -10595,7 +10642,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>767</v>
       </c>
@@ -10828,12 +10875,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>828</v>
       </c>
@@ -10850,7 +10897,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>832</v>
       </c>
@@ -10867,7 +10914,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>834</v>
       </c>
@@ -10884,7 +10931,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>836</v>
       </c>
@@ -10901,7 +10948,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>838</v>
       </c>
@@ -10918,7 +10965,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>839</v>
       </c>
@@ -10935,7 +10982,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>840</v>
       </c>
@@ -10952,7 +10999,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>841</v>
       </c>
@@ -10969,7 +11016,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>842</v>
       </c>
@@ -10992,67 +11039,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="373.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="373.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>844</v>
       </c>
@@ -11207,7 +11252,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -11362,7 +11407,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -11511,7 +11556,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>945</v>
       </c>
@@ -11666,12 +11711,12 @@
         <v>995</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>996</v>
       </c>
@@ -11688,25 +11733,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1060.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1060.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>999</v>
       </c>
@@ -11735,7 +11779,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1008</v>
       </c>
@@ -11764,7 +11808,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1017</v>
       </c>
@@ -11793,7 +11837,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1026</v>
       </c>
@@ -11822,12 +11866,12 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1035</v>
       </c>
@@ -11853,28 +11897,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1041</v>
       </c>
@@ -11912,7 +11956,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1053</v>
       </c>
@@ -11950,7 +11994,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1063</v>
       </c>
@@ -11988,7 +12032,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1074</v>
       </c>
@@ -12026,12 +12070,12 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1086</v>
       </c>
@@ -12048,12 +12092,12 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1092</v>
       </c>
@@ -12064,21 +12108,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1093</v>
       </c>
@@ -12095,7 +12139,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1097</v>
       </c>
@@ -12112,7 +12156,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1102</v>
       </c>
@@ -12129,7 +12173,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1107</v>
       </c>
@@ -12146,12 +12190,12 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1112</v>
       </c>
@@ -12162,46 +12206,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1113</v>
       </c>
@@ -12293,7 +12335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1125</v>
       </c>
@@ -12385,7 +12427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1134</v>
       </c>
@@ -12465,7 +12507,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1144</v>
       </c>
@@ -12557,12 +12599,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1156</v>
       </c>
@@ -12585,7 +12627,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1161</v>
       </c>
@@ -12608,7 +12650,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1163</v>
       </c>
@@ -12631,7 +12673,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1165</v>
       </c>
@@ -12654,7 +12696,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1166</v>
       </c>
@@ -12677,7 +12719,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1168</v>
       </c>
@@ -12700,7 +12742,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1169</v>
       </c>
@@ -12723,7 +12765,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1171</v>
       </c>
@@ -12746,7 +12788,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1172</v>
       </c>
@@ -12769,7 +12811,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1174</v>
       </c>
@@ -12792,7 +12834,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1175</v>
       </c>
@@ -12815,7 +12857,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1177</v>
       </c>
@@ -12838,7 +12880,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1178</v>
       </c>
@@ -12861,7 +12903,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1180</v>
       </c>
@@ -12884,7 +12926,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1181</v>
       </c>
@@ -12907,7 +12949,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1183</v>
       </c>
@@ -12930,7 +12972,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1184</v>
       </c>
@@ -12953,7 +12995,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1186</v>
       </c>
@@ -12976,7 +13018,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1187</v>
       </c>
@@ -12999,7 +13041,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1189</v>
       </c>
@@ -13022,7 +13064,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1190</v>
       </c>
@@ -13045,7 +13087,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1192</v>
       </c>
@@ -13068,7 +13110,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1193</v>
       </c>
@@ -13091,7 +13133,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1195</v>
       </c>
@@ -13114,7 +13156,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1196</v>
       </c>
@@ -13137,7 +13179,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1198</v>
       </c>
@@ -13160,7 +13202,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1199</v>
       </c>
@@ -13183,7 +13225,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1201</v>
       </c>
@@ -13206,7 +13248,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1202</v>
       </c>
@@ -13229,7 +13271,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1204</v>
       </c>
@@ -13252,7 +13294,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1205</v>
       </c>
@@ -13275,7 +13317,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1207</v>
       </c>
@@ -13298,7 +13340,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1208</v>
       </c>
@@ -13321,7 +13363,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1210</v>
       </c>
@@ -13344,7 +13386,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1211</v>
       </c>
@@ -13367,7 +13409,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1213</v>
       </c>
@@ -13390,7 +13432,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1214</v>
       </c>
@@ -13413,7 +13455,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1216</v>
       </c>
@@ -13436,7 +13478,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1217</v>
       </c>
@@ -13459,7 +13501,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1219</v>
       </c>
@@ -13482,7 +13524,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1220</v>
       </c>
@@ -13505,7 +13547,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1222</v>
       </c>
@@ -13528,7 +13570,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1223</v>
       </c>
@@ -13551,7 +13593,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1225</v>
       </c>
@@ -13574,7 +13616,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1226</v>
       </c>
@@ -13597,7 +13639,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1228</v>
       </c>
@@ -13620,7 +13662,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1229</v>
       </c>
@@ -13643,7 +13685,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1231</v>
       </c>
@@ -13666,7 +13708,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1232</v>
       </c>
@@ -13689,7 +13731,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1234</v>
       </c>
@@ -13712,7 +13754,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1235</v>
       </c>
@@ -13735,7 +13777,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1237</v>
       </c>
@@ -13758,7 +13800,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1238</v>
       </c>
@@ -13781,7 +13823,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1240</v>
       </c>
@@ -13804,7 +13846,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1241</v>
       </c>
@@ -13827,7 +13869,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1243</v>
       </c>
@@ -13850,7 +13892,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1244</v>
       </c>
@@ -13873,7 +13915,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1246</v>
       </c>
@@ -13896,7 +13938,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1247</v>
       </c>
@@ -13919,7 +13961,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1249</v>
       </c>
@@ -13942,7 +13984,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1250</v>
       </c>
@@ -13965,7 +14007,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1252</v>
       </c>
@@ -13988,7 +14030,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1253</v>
       </c>
@@ -14011,7 +14053,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1255</v>
       </c>
@@ -14034,7 +14076,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1256</v>
       </c>
@@ -14057,7 +14099,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1258</v>
       </c>
@@ -14080,7 +14122,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1259</v>
       </c>
@@ -14103,7 +14145,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1261</v>
       </c>
@@ -14126,7 +14168,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1262</v>
       </c>
@@ -14149,7 +14191,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1264</v>
       </c>
@@ -14172,7 +14214,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1265</v>
       </c>
@@ -14195,7 +14237,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1267</v>
       </c>
@@ -14218,7 +14260,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1268</v>
       </c>
@@ -14241,7 +14283,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1270</v>
       </c>
@@ -14264,7 +14306,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1271</v>
       </c>
@@ -14287,7 +14329,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1273</v>
       </c>
@@ -14310,7 +14352,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1274</v>
       </c>
@@ -14333,7 +14375,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1276</v>
       </c>
@@ -14356,7 +14398,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1277</v>
       </c>
@@ -14379,7 +14421,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1279</v>
       </c>
@@ -14402,7 +14444,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1280</v>
       </c>
@@ -14425,7 +14467,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1282</v>
       </c>
@@ -14448,7 +14490,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1283</v>
       </c>
@@ -14471,7 +14513,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1285</v>
       </c>
@@ -14494,7 +14536,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1286</v>
       </c>
@@ -14517,7 +14559,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1288</v>
       </c>
@@ -14540,7 +14582,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1289</v>
       </c>
@@ -14563,7 +14605,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1291</v>
       </c>
@@ -14586,7 +14628,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1292</v>
       </c>
@@ -14609,7 +14651,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1294</v>
       </c>
@@ -14632,7 +14674,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1295</v>
       </c>
@@ -14655,7 +14697,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1297</v>
       </c>
@@ -14678,7 +14720,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1298</v>
       </c>
@@ -14701,7 +14743,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1300</v>
       </c>
@@ -14724,7 +14766,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1301</v>
       </c>
@@ -14747,7 +14789,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1303</v>
       </c>
@@ -14770,7 +14812,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1304</v>
       </c>
@@ -14793,7 +14835,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1306</v>
       </c>
@@ -14816,7 +14858,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1307</v>
       </c>
@@ -14839,7 +14881,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1309</v>
       </c>
@@ -14862,7 +14904,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1310</v>
       </c>
@@ -14885,7 +14927,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1312</v>
       </c>
@@ -14908,7 +14950,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1313</v>
       </c>
@@ -14931,7 +14973,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1315</v>
       </c>
@@ -14954,7 +14996,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1316</v>
       </c>
@@ -14977,7 +15019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1318</v>
       </c>
@@ -15000,7 +15042,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1319</v>
       </c>
@@ -15023,7 +15065,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1321</v>
       </c>
@@ -15046,7 +15088,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1322</v>
       </c>
@@ -15069,7 +15111,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1324</v>
       </c>
@@ -15092,7 +15134,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1325</v>
       </c>
@@ -15115,7 +15157,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1327</v>
       </c>
@@ -15138,7 +15180,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1328</v>
       </c>
@@ -15161,7 +15203,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1330</v>
       </c>
@@ -15184,7 +15226,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1331</v>
       </c>
@@ -15207,7 +15249,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1333</v>
       </c>
@@ -15230,7 +15272,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1334</v>
       </c>
@@ -15253,7 +15295,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1336</v>
       </c>
@@ -15276,7 +15318,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1337</v>
       </c>
@@ -15299,7 +15341,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1339</v>
       </c>
@@ -15322,7 +15364,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1340</v>
       </c>
@@ -15345,7 +15387,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1342</v>
       </c>
@@ -15368,7 +15410,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1343</v>
       </c>
@@ -15391,7 +15433,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1345</v>
       </c>
@@ -15414,7 +15456,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1346</v>
       </c>
@@ -15437,7 +15479,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1348</v>
       </c>
@@ -15460,7 +15502,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1349</v>
       </c>
@@ -15483,7 +15525,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1351</v>
       </c>
@@ -15506,7 +15548,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1352</v>
       </c>
@@ -15529,7 +15571,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1354</v>
       </c>
@@ -15552,7 +15594,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1355</v>
       </c>
@@ -15575,7 +15617,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1357</v>
       </c>
@@ -15598,7 +15640,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1358</v>
       </c>
@@ -15621,7 +15663,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1360</v>
       </c>
@@ -15644,7 +15686,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1361</v>
       </c>
@@ -15667,7 +15709,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1363</v>
       </c>
@@ -15690,7 +15732,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1364</v>
       </c>
@@ -15713,7 +15755,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1366</v>
       </c>
@@ -15736,7 +15778,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1367</v>
       </c>
@@ -15759,7 +15801,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1369</v>
       </c>
@@ -15782,7 +15824,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1370</v>
       </c>
@@ -15805,7 +15847,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1372</v>
       </c>
@@ -15828,7 +15870,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1373</v>
       </c>
@@ -15851,7 +15893,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1375</v>
       </c>
@@ -15874,7 +15916,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1376</v>
       </c>
@@ -15897,7 +15939,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1378</v>
       </c>
@@ -15920,7 +15962,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1379</v>
       </c>
@@ -15943,7 +15985,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1381</v>
       </c>
@@ -15966,7 +16008,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1382</v>
       </c>
@@ -15989,7 +16031,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1384</v>
       </c>
@@ -16012,7 +16054,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1385</v>
       </c>
@@ -16035,7 +16077,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1387</v>
       </c>
@@ -16058,7 +16100,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1388</v>
       </c>
@@ -16081,7 +16123,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1390</v>
       </c>
@@ -16104,7 +16146,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1391</v>
       </c>
@@ -16127,7 +16169,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1393</v>
       </c>
@@ -16150,7 +16192,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1394</v>
       </c>
@@ -16173,7 +16215,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1396</v>
       </c>
@@ -16196,7 +16238,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1397</v>
       </c>
@@ -16219,7 +16261,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1399</v>
       </c>
@@ -16242,7 +16284,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1400</v>
       </c>
@@ -16265,7 +16307,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1402</v>
       </c>
@@ -16288,7 +16330,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1403</v>
       </c>
@@ -16311,7 +16353,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1405</v>
       </c>
@@ -16334,7 +16376,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1406</v>
       </c>
@@ -16357,7 +16399,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1408</v>
       </c>
@@ -16380,7 +16422,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1409</v>
       </c>
@@ -16403,7 +16445,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1411</v>
       </c>
@@ -16426,7 +16468,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1412</v>
       </c>
@@ -16449,7 +16491,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1414</v>
       </c>
@@ -16472,7 +16514,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1415</v>
       </c>
@@ -16495,7 +16537,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1417</v>
       </c>
@@ -16518,7 +16560,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1418</v>
       </c>
@@ -16541,7 +16583,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1420</v>
       </c>
@@ -16564,7 +16606,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1421</v>
       </c>
@@ -16587,7 +16629,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1423</v>
       </c>
@@ -16610,7 +16652,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1424</v>
       </c>
@@ -16633,7 +16675,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1426</v>
       </c>
@@ -16656,7 +16698,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1427</v>
       </c>
@@ -16679,7 +16721,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1429</v>
       </c>
@@ -16702,7 +16744,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1430</v>
       </c>
@@ -16725,7 +16767,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1432</v>
       </c>
@@ -16748,7 +16790,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1433</v>
       </c>
@@ -16771,7 +16813,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1435</v>
       </c>
@@ -16794,7 +16836,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1436</v>
       </c>
@@ -16817,7 +16859,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1438</v>
       </c>
@@ -16840,7 +16882,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1439</v>
       </c>
@@ -16863,7 +16905,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1441</v>
       </c>
@@ -16886,7 +16928,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1442</v>
       </c>
@@ -16909,7 +16951,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1444</v>
       </c>
@@ -16932,7 +16974,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1445</v>
       </c>
@@ -16955,7 +16997,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1447</v>
       </c>
@@ -16978,7 +17020,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1448</v>
       </c>
@@ -17001,7 +17043,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1450</v>
       </c>
@@ -17024,7 +17066,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1451</v>
       </c>
@@ -17047,7 +17089,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1453</v>
       </c>
@@ -17070,7 +17112,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1454</v>
       </c>
@@ -17093,7 +17135,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1456</v>
       </c>
@@ -17116,7 +17158,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1457</v>
       </c>
@@ -17139,7 +17181,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1459</v>
       </c>
@@ -17162,7 +17204,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1460</v>
       </c>
@@ -17185,7 +17227,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1462</v>
       </c>
@@ -17208,7 +17250,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1463</v>
       </c>
@@ -17231,7 +17273,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1465</v>
       </c>
@@ -17254,7 +17296,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1466</v>
       </c>
@@ -17277,7 +17319,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1468</v>
       </c>
@@ -17300,7 +17342,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1469</v>
       </c>
@@ -17323,7 +17365,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1471</v>
       </c>
@@ -17346,7 +17388,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1472</v>
       </c>
@@ -17369,7 +17411,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1474</v>
       </c>
@@ -17392,7 +17434,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1475</v>
       </c>
@@ -17415,7 +17457,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1477</v>
       </c>
@@ -17438,7 +17480,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1478</v>
       </c>
@@ -17461,7 +17503,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1480</v>
       </c>
@@ -17484,7 +17526,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1481</v>
       </c>
@@ -17507,7 +17549,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1483</v>
       </c>
@@ -17530,7 +17572,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1484</v>
       </c>
@@ -17553,7 +17595,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1486</v>
       </c>
@@ -17576,7 +17618,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1487</v>
       </c>
@@ -17599,7 +17641,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1489</v>
       </c>
@@ -17622,7 +17664,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1490</v>
       </c>
@@ -17645,7 +17687,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1492</v>
       </c>
@@ -17668,7 +17710,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1493</v>
       </c>
@@ -17691,7 +17733,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1495</v>
       </c>
@@ -17714,7 +17756,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1496</v>
       </c>
@@ -17737,7 +17779,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1498</v>
       </c>
@@ -17760,7 +17802,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1499</v>
       </c>
@@ -17783,7 +17825,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1501</v>
       </c>
@@ -17806,7 +17848,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1502</v>
       </c>
@@ -17829,7 +17871,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1504</v>
       </c>
@@ -17852,7 +17894,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1505</v>
       </c>
@@ -17875,7 +17917,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1507</v>
       </c>
@@ -17898,7 +17940,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1508</v>
       </c>
@@ -17921,7 +17963,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1510</v>
       </c>
@@ -17944,7 +17986,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1511</v>
       </c>
@@ -17967,7 +18009,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1513</v>
       </c>
@@ -17990,7 +18032,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1514</v>
       </c>
@@ -18013,7 +18055,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1516</v>
       </c>
@@ -18036,7 +18078,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1517</v>
       </c>
@@ -18059,7 +18101,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1519</v>
       </c>
@@ -18082,7 +18124,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1520</v>
       </c>
@@ -18105,7 +18147,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1522</v>
       </c>
@@ -18128,7 +18170,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1523</v>
       </c>
@@ -18151,7 +18193,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1525</v>
       </c>
@@ -18174,7 +18216,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1526</v>
       </c>
@@ -18197,7 +18239,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1528</v>
       </c>
@@ -18220,7 +18262,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1529</v>
       </c>
@@ -18243,7 +18285,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1531</v>
       </c>
@@ -18266,7 +18308,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1532</v>
       </c>
@@ -18289,7 +18331,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1534</v>
       </c>
@@ -18312,7 +18354,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1535</v>
       </c>
@@ -18335,7 +18377,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1537</v>
       </c>
@@ -18358,7 +18400,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1538</v>
       </c>
@@ -18381,7 +18423,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1540</v>
       </c>
@@ -18404,7 +18446,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1541</v>
       </c>
@@ -18427,7 +18469,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1543</v>
       </c>
@@ -18450,7 +18492,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1544</v>
       </c>
@@ -18473,7 +18515,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1546</v>
       </c>
@@ -18496,7 +18538,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1547</v>
       </c>
@@ -18519,7 +18561,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1549</v>
       </c>
@@ -18542,7 +18584,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1550</v>
       </c>
@@ -18565,7 +18607,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1552</v>
       </c>
@@ -18588,7 +18630,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1553</v>
       </c>
@@ -18611,7 +18653,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1555</v>
       </c>
@@ -18634,7 +18676,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1556</v>
       </c>
@@ -18657,7 +18699,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1558</v>
       </c>
@@ -18680,7 +18722,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1559</v>
       </c>
@@ -18703,7 +18745,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1561</v>
       </c>
@@ -18726,7 +18768,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1562</v>
       </c>
@@ -18749,7 +18791,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1564</v>
       </c>
@@ -18772,7 +18814,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1565</v>
       </c>
@@ -18795,7 +18837,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1567</v>
       </c>
@@ -18818,7 +18860,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1568</v>
       </c>
@@ -18841,7 +18883,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1570</v>
       </c>
@@ -18864,7 +18906,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1571</v>
       </c>
@@ -18887,7 +18929,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1573</v>
       </c>
@@ -18910,7 +18952,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1574</v>
       </c>
@@ -18933,7 +18975,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1576</v>
       </c>
@@ -18956,7 +18998,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1577</v>
       </c>
@@ -18979,7 +19021,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1579</v>
       </c>
@@ -19002,7 +19044,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1580</v>
       </c>
@@ -19025,7 +19067,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1582</v>
       </c>
@@ -19048,7 +19090,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1583</v>
       </c>
@@ -19071,7 +19113,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1585</v>
       </c>
@@ -19094,7 +19136,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1586</v>
       </c>
@@ -19117,7 +19159,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1588</v>
       </c>
@@ -19140,7 +19182,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1589</v>
       </c>
@@ -19163,7 +19205,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1591</v>
       </c>
@@ -19186,7 +19228,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1592</v>
       </c>
@@ -19209,7 +19251,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1594</v>
       </c>
@@ -19232,7 +19274,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1595</v>
       </c>
@@ -19255,7 +19297,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1597</v>
       </c>
@@ -19278,7 +19320,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1598</v>
       </c>
@@ -19301,7 +19343,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1600</v>
       </c>
@@ -19324,7 +19366,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1601</v>
       </c>
@@ -19347,7 +19389,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1603</v>
       </c>
@@ -19376,34 +19418,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="373.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="373.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1124</v>
       </c>
@@ -19459,7 +19503,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -19515,7 +19559,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -19565,7 +19609,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1155</v>
       </c>
@@ -19621,12 +19665,12 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1160</v>
       </c>
@@ -19635,6 +19679,9 @@
       </c>
       <c r="G6" t="s">
         <v>1650</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
@@ -19643,76 +19690,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -19894,7 +19938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -20076,7 +20120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -20237,7 +20281,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -20419,12 +20463,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -20441,7 +20485,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>265</v>
       </c>
@@ -20458,7 +20502,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>341</v>
       </c>
@@ -20475,7 +20519,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>378</v>
       </c>
@@ -20492,7 +20536,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>448</v>
       </c>
@@ -20509,7 +20553,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -20526,7 +20570,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>519</v>
       </c>
@@ -20543,7 +20587,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>538</v>
       </c>
@@ -20560,7 +20604,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>611</v>
       </c>
